--- a/4월 스터디 활동 결과보고서_부울경_1반_김나연.xlsx
+++ b/4월 스터디 활동 결과보고서_부울경_1반_김나연.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\DE_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,11 +89,10 @@
 - 4/12(수)  : 프로젝트 진행상황 공유 및 피드백
 팟캐스트 추천) 팟캐스트 데이터 확보 - 크롤링 어려워서 csv 파일 등을 실시간으로 처리하고자 하여 카프카 학습 시작 [인프런-아파치 카프카 for beginner]
 맛집 추천 챗봇) "처음 배우는 딥러닝 챗봇" 책 중심으로 딥러닝 학습. CNN의 이미지 처리 방식 학습.
-AI 애플리케이션 개발) 3명이 각각 주제 하나씩 맡음, AWS를 활용하여 음성↔텍스트 변환 학습
+AI 애플리케이션 개발) EMR을 이용한 분산 데이터 처리 아키텍처 이해 및 Object2Vec 알고리즘 개념 학습
 - 4/19(수)  : 프로젝트 진행상황 공유 및 피드백, 추후 스터디 계획 회의
 팟캐스트 추천)  카프카 학습 [인프런-아파치 카프카 for beginner]
 맛집 추천 챗봇) "처음 배우는 딥러닝 챗봇" 책 중심으로 딥러닝 학습. RNN과 LSTM학습.
-AI 애플리케이션 개발) EMR을 이용한 분산 데이터 처리 아키텍처 이해 및 Object2Vec 알고리즘 개념 학습
 =&gt; 예상보다 프로젝트 진행이 더뎌서 5월부터는 2주에 한 번 온라인 스터디를 진행한다.
 2. 활동 기록
 - 팟캐스트 추천 : https://github.com/nayeonxkim/Podcast_Recommender
@@ -511,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -520,7 +519,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -988,7 +987,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="72" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="72" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:D12"/>
     </sheetView>
   </sheetViews>
